--- a/Config/__beans__.xlsx
+++ b/Config/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22331" windowHeight="8484"/>
+    <workbookView windowWidth="28125" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>高度</t>
+  </si>
+  <si>
+    <t>item.Item2</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
 </sst>
 </file>
@@ -191,7 +200,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,20 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -666,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,7 +673,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,124 +682,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -818,10 +813,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,19 +1138,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.6296296296296" customWidth="1"/>
+    <col min="2" max="3" width="20.6333333333333" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="10.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1433,6 +1428,33 @@
         <v>54</v>
       </c>
     </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
